--- a/environhub/chhattisgarhpollution.xlsx
+++ b/environhub/chhattisgarhpollution.xlsx
@@ -54,13 +54,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Political Interevention</t>
+    <t xml:space="preserve">political intervention</t>
   </si>
   <si>
     <t xml:space="preserve">Central Pollution Control Board has found that there was an urgent need to step up efforts to combat air pollution in major cities in the state under national clean air programme (ncap).</t>
   </si>
   <si>
-    <t xml:space="preserve">Geological Effects</t>
+    <t xml:space="preserve">Geological Effect</t>
   </si>
   <si>
     <t xml:space="preserve">The Central Pollution Control Board has ranked Korba, in Chhattisgarh, fifth in the ‘critically polluted area’ category. Korba which was known as a power hub is slowly turning into a pollution hub.</t>
@@ -334,7 +334,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -349,6 +349,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1436,7 +1440,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1482,7 +1486,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -2540,38 +2544,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -2580,7 +2584,7 @@
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3630,290 +3634,290 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="8" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="6" t="n">
+      <c r="B31" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="6" t="n">
+      <c r="B32" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="6" t="n">
+      <c r="B33" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B34" s="6" t="n">
+      <c r="B34" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="6" t="n">
+      <c r="B35" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="6" t="n">
+      <c r="B36" s="7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B37" s="6" t="n">
+      <c r="B37" s="7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4918,1474 +4922,1474 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="n">
+      <c r="A2" s="9" t="n">
         <v>37987</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="8" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="n">
+      <c r="A3" s="9" t="n">
         <v>38018</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="n">
+      <c r="A4" s="9" t="n">
         <v>38047</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="8" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="n">
+      <c r="A5" s="9" t="n">
         <v>38078</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="n">
+      <c r="A6" s="9" t="n">
         <v>38108</v>
       </c>
-      <c r="B6" s="7" t="n">
+      <c r="B6" s="8" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="n">
+      <c r="A7" s="9" t="n">
         <v>38139</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="8" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="n">
+      <c r="A8" s="9" t="n">
         <v>38169</v>
       </c>
-      <c r="B8" s="7" t="n">
+      <c r="B8" s="8" t="n">
         <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="n">
+      <c r="A9" s="9" t="n">
         <v>38200</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="8" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="n">
+      <c r="A10" s="9" t="n">
         <v>38231</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="10" t="n">
         <v>38261</v>
       </c>
-      <c r="B11" s="7" t="n">
+      <c r="B11" s="8" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="10" t="n">
         <v>38292</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="8" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="10" t="n">
         <v>38322</v>
       </c>
-      <c r="B13" s="7" t="n">
+      <c r="B13" s="8" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="n">
+      <c r="A14" s="9" t="n">
         <v>38353</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="8" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="n">
+      <c r="A15" s="9" t="n">
         <v>38384</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="8" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="n">
+      <c r="A16" s="9" t="n">
         <v>38412</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="n">
+      <c r="A17" s="9" t="n">
         <v>38443</v>
       </c>
-      <c r="B17" s="7" t="n">
+      <c r="B17" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="n">
+      <c r="A18" s="9" t="n">
         <v>38473</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="8" t="n">
         <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="n">
+      <c r="A19" s="9" t="n">
         <v>38504</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="8" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="n">
+      <c r="A20" s="9" t="n">
         <v>38534</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="8" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="n">
+      <c r="A21" s="9" t="n">
         <v>38565</v>
       </c>
-      <c r="B21" s="7" t="n">
+      <c r="B21" s="8" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="n">
+      <c r="A22" s="9" t="n">
         <v>38596</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="10" t="n">
         <v>38626</v>
       </c>
-      <c r="B23" s="7" t="n">
+      <c r="B23" s="8" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="10" t="n">
         <v>38657</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="8" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="10" t="n">
         <v>38687</v>
       </c>
-      <c r="B25" s="7" t="n">
+      <c r="B25" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="n">
+      <c r="A26" s="9" t="n">
         <v>38718</v>
       </c>
-      <c r="B26" s="7" t="n">
+      <c r="B26" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="n">
+      <c r="A27" s="9" t="n">
         <v>38749</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="8" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="n">
+      <c r="A28" s="9" t="n">
         <v>38777</v>
       </c>
-      <c r="B28" s="7" t="n">
+      <c r="B28" s="8" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="n">
+      <c r="A29" s="9" t="n">
         <v>38808</v>
       </c>
-      <c r="B29" s="7" t="n">
+      <c r="B29" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="n">
+      <c r="A30" s="9" t="n">
         <v>38838</v>
       </c>
-      <c r="B30" s="7" t="n">
+      <c r="B30" s="8" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="n">
+      <c r="A31" s="9" t="n">
         <v>38869</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="n">
+      <c r="A32" s="9" t="n">
         <v>38899</v>
       </c>
-      <c r="B32" s="7" t="n">
+      <c r="B32" s="8" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8" t="n">
+      <c r="A33" s="9" t="n">
         <v>38930</v>
       </c>
-      <c r="B33" s="7" t="n">
+      <c r="B33" s="8" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="n">
+      <c r="A34" s="9" t="n">
         <v>38961</v>
       </c>
-      <c r="B34" s="7" t="n">
+      <c r="B34" s="8" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="9" t="n">
+      <c r="A35" s="10" t="n">
         <v>38991</v>
       </c>
-      <c r="B35" s="7" t="n">
+      <c r="B35" s="8" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="9" t="n">
+      <c r="A36" s="10" t="n">
         <v>39022</v>
       </c>
-      <c r="B36" s="7" t="n">
+      <c r="B36" s="8" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="n">
+      <c r="A37" s="10" t="n">
         <v>39052</v>
       </c>
-      <c r="B37" s="7" t="n">
+      <c r="B37" s="8" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="n">
+      <c r="A38" s="9" t="n">
         <v>39083</v>
       </c>
-      <c r="B38" s="7" t="n">
+      <c r="B38" s="8" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="n">
+      <c r="A39" s="9" t="n">
         <v>39114</v>
       </c>
-      <c r="B39" s="7" t="n">
+      <c r="B39" s="8" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="n">
+      <c r="A40" s="9" t="n">
         <v>39142</v>
       </c>
-      <c r="B40" s="7" t="n">
+      <c r="B40" s="8" t="n">
         <v>26</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="n">
+      <c r="A41" s="9" t="n">
         <v>39173</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B41" s="8" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="n">
+      <c r="A42" s="9" t="n">
         <v>39203</v>
       </c>
-      <c r="B42" s="7" t="n">
+      <c r="B42" s="8" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="n">
+      <c r="A43" s="9" t="n">
         <v>39234</v>
       </c>
-      <c r="B43" s="7" t="n">
+      <c r="B43" s="8" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="n">
+      <c r="A44" s="9" t="n">
         <v>39264</v>
       </c>
-      <c r="B44" s="7" t="n">
+      <c r="B44" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="n">
+      <c r="A45" s="9" t="n">
         <v>39295</v>
       </c>
-      <c r="B45" s="7" t="n">
+      <c r="B45" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="n">
+      <c r="A46" s="9" t="n">
         <v>39326</v>
       </c>
-      <c r="B46" s="7" t="n">
+      <c r="B46" s="8" t="n">
         <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="9" t="n">
+      <c r="A47" s="10" t="n">
         <v>39356</v>
       </c>
-      <c r="B47" s="7" t="n">
+      <c r="B47" s="8" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="n">
+      <c r="A48" s="10" t="n">
         <v>39387</v>
       </c>
-      <c r="B48" s="7" t="n">
+      <c r="B48" s="8" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="n">
+      <c r="A49" s="10" t="n">
         <v>39417</v>
       </c>
-      <c r="B49" s="7" t="n">
+      <c r="B49" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="n">
+      <c r="A50" s="9" t="n">
         <v>39448</v>
       </c>
-      <c r="B50" s="7" t="n">
+      <c r="B50" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="n">
+      <c r="A51" s="9" t="n">
         <v>39479</v>
       </c>
-      <c r="B51" s="7" t="n">
+      <c r="B51" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="n">
+      <c r="A52" s="9" t="n">
         <v>39508</v>
       </c>
-      <c r="B52" s="7" t="n">
+      <c r="B52" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="n">
+      <c r="A53" s="9" t="n">
         <v>39539</v>
       </c>
-      <c r="B53" s="7" t="n">
+      <c r="B53" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="n">
+      <c r="A54" s="9" t="n">
         <v>39569</v>
       </c>
-      <c r="B54" s="7" t="n">
+      <c r="B54" s="8" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="n">
+      <c r="A55" s="9" t="n">
         <v>39600</v>
       </c>
-      <c r="B55" s="7" t="n">
+      <c r="B55" s="8" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="n">
+      <c r="A56" s="9" t="n">
         <v>39630</v>
       </c>
-      <c r="B56" s="7" t="n">
+      <c r="B56" s="8" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="n">
+      <c r="A57" s="9" t="n">
         <v>39661</v>
       </c>
-      <c r="B57" s="7" t="n">
+      <c r="B57" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="n">
+      <c r="A58" s="9" t="n">
         <v>39692</v>
       </c>
-      <c r="B58" s="7" t="n">
+      <c r="B58" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="n">
+      <c r="A59" s="10" t="n">
         <v>39722</v>
       </c>
-      <c r="B59" s="7" t="n">
+      <c r="B59" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="9" t="n">
+      <c r="A60" s="10" t="n">
         <v>39753</v>
       </c>
-      <c r="B60" s="7" t="n">
+      <c r="B60" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="9" t="n">
+      <c r="A61" s="10" t="n">
         <v>39783</v>
       </c>
-      <c r="B61" s="7" t="n">
+      <c r="B61" s="8" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="n">
+      <c r="A62" s="9" t="n">
         <v>39814</v>
       </c>
-      <c r="B62" s="7" t="n">
+      <c r="B62" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="9" t="n">
         <v>39845</v>
       </c>
-      <c r="B63" s="7" t="n">
+      <c r="B63" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="n">
+      <c r="A64" s="9" t="n">
         <v>39873</v>
       </c>
-      <c r="B64" s="7" t="n">
+      <c r="B64" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="n">
+      <c r="A65" s="9" t="n">
         <v>39904</v>
       </c>
-      <c r="B65" s="7" t="n">
+      <c r="B65" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="n">
+      <c r="A66" s="9" t="n">
         <v>39934</v>
       </c>
-      <c r="B66" s="7" t="n">
+      <c r="B66" s="8" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="n">
+      <c r="A67" s="9" t="n">
         <v>39965</v>
       </c>
-      <c r="B67" s="7" t="n">
+      <c r="B67" s="8" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
+      <c r="A68" s="9" t="n">
         <v>39995</v>
       </c>
-      <c r="B68" s="7" t="n">
+      <c r="B68" s="8" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="9" t="n">
         <v>40026</v>
       </c>
-      <c r="B69" s="7" t="n">
+      <c r="B69" s="8" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="n">
+      <c r="A70" s="9" t="n">
         <v>40057</v>
       </c>
-      <c r="B70" s="7" t="n">
+      <c r="B70" s="8" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="9" t="n">
+      <c r="A71" s="10" t="n">
         <v>40087</v>
       </c>
-      <c r="B71" s="7" t="n">
+      <c r="B71" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="9" t="n">
+      <c r="A72" s="10" t="n">
         <v>40118</v>
       </c>
-      <c r="B72" s="7" t="n">
+      <c r="B72" s="8" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="9" t="n">
+      <c r="A73" s="10" t="n">
         <v>40148</v>
       </c>
-      <c r="B73" s="7" t="n">
+      <c r="B73" s="8" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="n">
+      <c r="A74" s="9" t="n">
         <v>40179</v>
       </c>
-      <c r="B74" s="7" t="n">
+      <c r="B74" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="n">
+      <c r="A75" s="9" t="n">
         <v>40210</v>
       </c>
-      <c r="B75" s="7" t="n">
+      <c r="B75" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="n">
+      <c r="A76" s="9" t="n">
         <v>40238</v>
       </c>
-      <c r="B76" s="7" t="n">
+      <c r="B76" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="n">
+      <c r="A77" s="9" t="n">
         <v>40269</v>
       </c>
-      <c r="B77" s="7" t="n">
+      <c r="B77" s="8" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="n">
+      <c r="A78" s="9" t="n">
         <v>40299</v>
       </c>
-      <c r="B78" s="7" t="n">
+      <c r="B78" s="8" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="n">
+      <c r="A79" s="9" t="n">
         <v>40330</v>
       </c>
-      <c r="B79" s="7" t="n">
+      <c r="B79" s="8" t="n">
         <v>46</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="n">
+      <c r="A80" s="9" t="n">
         <v>40360</v>
       </c>
-      <c r="B80" s="7" t="n">
+      <c r="B80" s="8" t="n">
         <v>41</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="n">
+      <c r="A81" s="9" t="n">
         <v>40391</v>
       </c>
-      <c r="B81" s="7" t="n">
+      <c r="B81" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="n">
+      <c r="A82" s="9" t="n">
         <v>40422</v>
       </c>
-      <c r="B82" s="7" t="n">
+      <c r="B82" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="9" t="n">
+      <c r="A83" s="10" t="n">
         <v>40452</v>
       </c>
-      <c r="B83" s="7" t="n">
+      <c r="B83" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="n">
+      <c r="A84" s="10" t="n">
         <v>40483</v>
       </c>
-      <c r="B84" s="7" t="n">
+      <c r="B84" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="9" t="n">
+      <c r="A85" s="10" t="n">
         <v>40513</v>
       </c>
-      <c r="B85" s="7" t="n">
+      <c r="B85" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="n">
+      <c r="A86" s="9" t="n">
         <v>40544</v>
       </c>
-      <c r="B86" s="7" t="n">
+      <c r="B86" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="n">
+      <c r="A87" s="9" t="n">
         <v>40575</v>
       </c>
-      <c r="B87" s="7" t="n">
+      <c r="B87" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="n">
+      <c r="A88" s="9" t="n">
         <v>40603</v>
       </c>
-      <c r="B88" s="7" t="n">
+      <c r="B88" s="8" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="n">
+      <c r="A89" s="9" t="n">
         <v>40634</v>
       </c>
-      <c r="B89" s="7" t="n">
+      <c r="B89" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="n">
+      <c r="A90" s="9" t="n">
         <v>40664</v>
       </c>
-      <c r="B90" s="7" t="n">
+      <c r="B90" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="n">
+      <c r="A91" s="9" t="n">
         <v>40695</v>
       </c>
-      <c r="B91" s="7" t="n">
+      <c r="B91" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="n">
+      <c r="A92" s="9" t="n">
         <v>40725</v>
       </c>
-      <c r="B92" s="7" t="n">
+      <c r="B92" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="n">
+      <c r="A93" s="9" t="n">
         <v>40756</v>
       </c>
-      <c r="B93" s="7" t="n">
+      <c r="B93" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="n">
+      <c r="A94" s="9" t="n">
         <v>40787</v>
       </c>
-      <c r="B94" s="7" t="n">
+      <c r="B94" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="9" t="n">
+      <c r="A95" s="10" t="n">
         <v>40817</v>
       </c>
-      <c r="B95" s="7" t="n">
+      <c r="B95" s="8" t="n">
         <v>28</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="9" t="n">
+      <c r="A96" s="10" t="n">
         <v>40848</v>
       </c>
-      <c r="B96" s="7" t="n">
+      <c r="B96" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="9" t="n">
+      <c r="A97" s="10" t="n">
         <v>40878</v>
       </c>
-      <c r="B97" s="7" t="n">
+      <c r="B97" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="n">
+      <c r="A98" s="9" t="n">
         <v>40909</v>
       </c>
-      <c r="B98" s="7" t="n">
+      <c r="B98" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="n">
+      <c r="A99" s="9" t="n">
         <v>40940</v>
       </c>
-      <c r="B99" s="7" t="n">
+      <c r="B99" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="n">
+      <c r="A100" s="9" t="n">
         <v>40969</v>
       </c>
-      <c r="B100" s="7" t="n">
+      <c r="B100" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="n">
+      <c r="A101" s="9" t="n">
         <v>41000</v>
       </c>
-      <c r="B101" s="7" t="n">
+      <c r="B101" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="n">
+      <c r="A102" s="9" t="n">
         <v>41030</v>
       </c>
-      <c r="B102" s="7" t="n">
+      <c r="B102" s="8" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="n">
+      <c r="A103" s="9" t="n">
         <v>41061</v>
       </c>
-      <c r="B103" s="7" t="n">
+      <c r="B103" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="n">
+      <c r="A104" s="9" t="n">
         <v>41091</v>
       </c>
-      <c r="B104" s="7" t="n">
+      <c r="B104" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="n">
+      <c r="A105" s="9" t="n">
         <v>41122</v>
       </c>
-      <c r="B105" s="7" t="n">
+      <c r="B105" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="n">
+      <c r="A106" s="9" t="n">
         <v>41153</v>
       </c>
-      <c r="B106" s="7" t="n">
+      <c r="B106" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="n">
+      <c r="A107" s="10" t="n">
         <v>41183</v>
       </c>
-      <c r="B107" s="7" t="n">
+      <c r="B107" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="n">
+      <c r="A108" s="10" t="n">
         <v>41214</v>
       </c>
-      <c r="B108" s="7" t="n">
+      <c r="B108" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="n">
+      <c r="A109" s="10" t="n">
         <v>41244</v>
       </c>
-      <c r="B109" s="7" t="n">
+      <c r="B109" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="n">
+      <c r="A110" s="9" t="n">
         <v>41275</v>
       </c>
-      <c r="B110" s="7" t="n">
+      <c r="B110" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="n">
+      <c r="A111" s="9" t="n">
         <v>41306</v>
       </c>
-      <c r="B111" s="7" t="n">
+      <c r="B111" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="n">
+      <c r="A112" s="9" t="n">
         <v>41334</v>
       </c>
-      <c r="B112" s="7" t="n">
+      <c r="B112" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="n">
+      <c r="A113" s="9" t="n">
         <v>41365</v>
       </c>
-      <c r="B113" s="7" t="n">
+      <c r="B113" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="n">
+      <c r="A114" s="9" t="n">
         <v>41395</v>
       </c>
-      <c r="B114" s="7" t="n">
+      <c r="B114" s="8" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="n">
+      <c r="A115" s="9" t="n">
         <v>41426</v>
       </c>
-      <c r="B115" s="7" t="n">
+      <c r="B115" s="8" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="n">
+      <c r="A116" s="9" t="n">
         <v>41456</v>
       </c>
-      <c r="B116" s="7" t="n">
+      <c r="B116" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="n">
+      <c r="A117" s="9" t="n">
         <v>41487</v>
       </c>
-      <c r="B117" s="7" t="n">
+      <c r="B117" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="n">
+      <c r="A118" s="9" t="n">
         <v>41518</v>
       </c>
-      <c r="B118" s="7" t="n">
+      <c r="B118" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="n">
+      <c r="A119" s="10" t="n">
         <v>41548</v>
       </c>
-      <c r="B119" s="7" t="n">
+      <c r="B119" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="n">
+      <c r="A120" s="10" t="n">
         <v>41579</v>
       </c>
-      <c r="B120" s="7" t="n">
+      <c r="B120" s="8" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="n">
+      <c r="A121" s="10" t="n">
         <v>41609</v>
       </c>
-      <c r="B121" s="7" t="n">
+      <c r="B121" s="8" t="n">
         <v>42</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="n">
+      <c r="A122" s="9" t="n">
         <v>41640</v>
       </c>
-      <c r="B122" s="7" t="n">
+      <c r="B122" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="n">
+      <c r="A123" s="9" t="n">
         <v>41671</v>
       </c>
-      <c r="B123" s="7" t="n">
+      <c r="B123" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="n">
+      <c r="A124" s="9" t="n">
         <v>41699</v>
       </c>
-      <c r="B124" s="7" t="n">
+      <c r="B124" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="n">
+      <c r="A125" s="9" t="n">
         <v>41730</v>
       </c>
-      <c r="B125" s="7" t="n">
+      <c r="B125" s="8" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="n">
+      <c r="A126" s="9" t="n">
         <v>41760</v>
       </c>
-      <c r="B126" s="7" t="n">
+      <c r="B126" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="n">
+      <c r="A127" s="9" t="n">
         <v>41791</v>
       </c>
-      <c r="B127" s="7" t="n">
+      <c r="B127" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="n">
+      <c r="A128" s="9" t="n">
         <v>41821</v>
       </c>
-      <c r="B128" s="7" t="n">
+      <c r="B128" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="n">
+      <c r="A129" s="9" t="n">
         <v>41852</v>
       </c>
-      <c r="B129" s="7" t="n">
+      <c r="B129" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="n">
+      <c r="A130" s="9" t="n">
         <v>41883</v>
       </c>
-      <c r="B130" s="7" t="n">
+      <c r="B130" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="n">
+      <c r="A131" s="10" t="n">
         <v>41913</v>
       </c>
-      <c r="B131" s="7" t="n">
+      <c r="B131" s="8" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="n">
+      <c r="A132" s="10" t="n">
         <v>41944</v>
       </c>
-      <c r="B132" s="7" t="n">
+      <c r="B132" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="n">
+      <c r="A133" s="10" t="n">
         <v>41974</v>
       </c>
-      <c r="B133" s="7" t="n">
+      <c r="B133" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="n">
+      <c r="A134" s="9" t="n">
         <v>42005</v>
       </c>
-      <c r="B134" s="7" t="n">
+      <c r="B134" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="n">
+      <c r="A135" s="9" t="n">
         <v>42036</v>
       </c>
-      <c r="B135" s="7" t="n">
+      <c r="B135" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="n">
+      <c r="A136" s="9" t="n">
         <v>42064</v>
       </c>
-      <c r="B136" s="7" t="n">
+      <c r="B136" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="n">
+      <c r="A137" s="9" t="n">
         <v>42095</v>
       </c>
-      <c r="B137" s="7" t="n">
+      <c r="B137" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8" t="n">
+      <c r="A138" s="9" t="n">
         <v>42125</v>
       </c>
-      <c r="B138" s="7" t="n">
+      <c r="B138" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="n">
+      <c r="A139" s="9" t="n">
         <v>42156</v>
       </c>
-      <c r="B139" s="7" t="n">
+      <c r="B139" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="n">
+      <c r="A140" s="9" t="n">
         <v>42186</v>
       </c>
-      <c r="B140" s="7" t="n">
+      <c r="B140" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="n">
+      <c r="A141" s="9" t="n">
         <v>42217</v>
       </c>
-      <c r="B141" s="7" t="n">
+      <c r="B141" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="n">
+      <c r="A142" s="9" t="n">
         <v>42248</v>
       </c>
-      <c r="B142" s="7" t="n">
+      <c r="B142" s="8" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="n">
+      <c r="A143" s="10" t="n">
         <v>42278</v>
       </c>
-      <c r="B143" s="7" t="n">
+      <c r="B143" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="n">
+      <c r="A144" s="10" t="n">
         <v>42309</v>
       </c>
-      <c r="B144" s="7" t="n">
+      <c r="B144" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="n">
+      <c r="A145" s="10" t="n">
         <v>42339</v>
       </c>
-      <c r="B145" s="7" t="n">
+      <c r="B145" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8" t="n">
+      <c r="A146" s="9" t="n">
         <v>42370</v>
       </c>
-      <c r="B146" s="7" t="n">
+      <c r="B146" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8" t="n">
+      <c r="A147" s="9" t="n">
         <v>42401</v>
       </c>
-      <c r="B147" s="7" t="n">
+      <c r="B147" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="n">
+      <c r="A148" s="9" t="n">
         <v>42430</v>
       </c>
-      <c r="B148" s="7" t="n">
+      <c r="B148" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8" t="n">
+      <c r="A149" s="9" t="n">
         <v>42461</v>
       </c>
-      <c r="B149" s="7" t="n">
+      <c r="B149" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8" t="n">
+      <c r="A150" s="9" t="n">
         <v>42491</v>
       </c>
-      <c r="B150" s="7" t="n">
+      <c r="B150" s="8" t="n">
         <v>33</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8" t="n">
+      <c r="A151" s="9" t="n">
         <v>42522</v>
       </c>
-      <c r="B151" s="7" t="n">
+      <c r="B151" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8" t="n">
+      <c r="A152" s="9" t="n">
         <v>42552</v>
       </c>
-      <c r="B152" s="7" t="n">
+      <c r="B152" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8" t="n">
+      <c r="A153" s="9" t="n">
         <v>42583</v>
       </c>
-      <c r="B153" s="7" t="n">
+      <c r="B153" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8" t="n">
+      <c r="A154" s="9" t="n">
         <v>42614</v>
       </c>
-      <c r="B154" s="7" t="n">
+      <c r="B154" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9" t="n">
+      <c r="A155" s="10" t="n">
         <v>42644</v>
       </c>
-      <c r="B155" s="7" t="n">
+      <c r="B155" s="8" t="n">
         <v>27</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9" t="n">
+      <c r="A156" s="10" t="n">
         <v>42675</v>
       </c>
-      <c r="B156" s="7" t="n">
+      <c r="B156" s="8" t="n">
         <v>29</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9" t="n">
+      <c r="A157" s="10" t="n">
         <v>42705</v>
       </c>
-      <c r="B157" s="7" t="n">
+      <c r="B157" s="8" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8" t="n">
+      <c r="A158" s="9" t="n">
         <v>42736</v>
       </c>
-      <c r="B158" s="7" t="n">
+      <c r="B158" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="n">
+      <c r="A159" s="9" t="n">
         <v>42767</v>
       </c>
-      <c r="B159" s="7" t="n">
+      <c r="B159" s="8" t="n">
         <v>32</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="n">
+      <c r="A160" s="9" t="n">
         <v>42795</v>
       </c>
-      <c r="B160" s="7" t="n">
+      <c r="B160" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="n">
+      <c r="A161" s="9" t="n">
         <v>42826</v>
       </c>
-      <c r="B161" s="7" t="n">
+      <c r="B161" s="8" t="n">
         <v>34</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8" t="n">
+      <c r="A162" s="9" t="n">
         <v>42856</v>
       </c>
-      <c r="B162" s="7" t="n">
+      <c r="B162" s="8" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8" t="n">
+      <c r="A163" s="9" t="n">
         <v>42887</v>
       </c>
-      <c r="B163" s="7" t="n">
+      <c r="B163" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="n">
+      <c r="A164" s="9" t="n">
         <v>42917</v>
       </c>
-      <c r="B164" s="7" t="n">
+      <c r="B164" s="8" t="n">
         <v>37</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="n">
+      <c r="A165" s="9" t="n">
         <v>42948</v>
       </c>
-      <c r="B165" s="7" t="n">
+      <c r="B165" s="8" t="n">
         <v>35</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="n">
+      <c r="A166" s="9" t="n">
         <v>42979</v>
       </c>
-      <c r="B166" s="7" t="n">
+      <c r="B166" s="8" t="n">
         <v>36</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9" t="n">
+      <c r="A167" s="10" t="n">
         <v>43009</v>
       </c>
-      <c r="B167" s="7" t="n">
+      <c r="B167" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9" t="n">
+      <c r="A168" s="10" t="n">
         <v>43040</v>
       </c>
-      <c r="B168" s="7" t="n">
+      <c r="B168" s="8" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="9" t="n">
+      <c r="A169" s="10" t="n">
         <v>43070</v>
       </c>
-      <c r="B169" s="7" t="n">
+      <c r="B169" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="n">
+      <c r="A170" s="9" t="n">
         <v>43101</v>
       </c>
-      <c r="B170" s="7" t="n">
+      <c r="B170" s="8" t="n">
         <v>40</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="n">
+      <c r="A171" s="9" t="n">
         <v>43132</v>
       </c>
-      <c r="B171" s="7" t="n">
+      <c r="B171" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="n">
+      <c r="A172" s="9" t="n">
         <v>43160</v>
       </c>
-      <c r="B172" s="7" t="n">
+      <c r="B172" s="8" t="n">
         <v>38</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8" t="n">
+      <c r="A173" s="9" t="n">
         <v>43191</v>
       </c>
-      <c r="B173" s="7" t="n">
+      <c r="B173" s="8" t="n">
         <v>39</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="n">
+      <c r="A174" s="9" t="n">
         <v>43221</v>
       </c>
-      <c r="B174" s="7" t="n">
+      <c r="B174" s="8" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="n">
+      <c r="A175" s="9" t="n">
         <v>43252</v>
       </c>
-      <c r="B175" s="7" t="n">
+      <c r="B175" s="8" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="n">
+      <c r="A176" s="9" t="n">
         <v>43282</v>
       </c>
-      <c r="B176" s="7" t="n">
+      <c r="B176" s="8" t="n">
         <v>51</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="n">
+      <c r="A177" s="9" t="n">
         <v>43313</v>
       </c>
-      <c r="B177" s="7" t="n">
+      <c r="B177" s="8" t="n">
         <v>60</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8" t="n">
+      <c r="A178" s="9" t="n">
         <v>43344</v>
       </c>
-      <c r="B178" s="7" t="n">
+      <c r="B178" s="8" t="n">
         <v>59</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="9" t="n">
+      <c r="A179" s="10" t="n">
         <v>43374</v>
       </c>
-      <c r="B179" s="7" t="n">
+      <c r="B179" s="8" t="n">
         <v>66</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="9" t="n">
+      <c r="A180" s="10" t="n">
         <v>43405</v>
       </c>
-      <c r="B180" s="7" t="n">
+      <c r="B180" s="8" t="n">
         <v>73</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="9" t="n">
+      <c r="A181" s="10" t="n">
         <v>43435</v>
       </c>
-      <c r="B181" s="7" t="n">
+      <c r="B181" s="8" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8" t="n">
+      <c r="A182" s="9" t="n">
         <v>43466</v>
       </c>
-      <c r="B182" s="7" t="n">
+      <c r="B182" s="8" t="n">
         <v>55</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="8" t="n">
+      <c r="A183" s="9" t="n">
         <v>43497</v>
       </c>
-      <c r="B183" s="7" t="n">
+      <c r="B183" s="8" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8" t="n">
+      <c r="A184" s="9" t="n">
         <v>43525</v>
       </c>
-      <c r="B184" s="7" t="n">
+      <c r="B184" s="8" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="8" t="n">
+      <c r="A185" s="9" t="n">
         <v>43556</v>
       </c>
-      <c r="B185" s="7" t="n">
+      <c r="B185" s="8" t="n">
         <v>51</v>
       </c>
     </row>
@@ -7239,7 +7243,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>62</v>
       </c>
     </row>
